--- a/public/template_stundenzettel.xlsx
+++ b/public/template_stundenzettel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/878c19af52f888ae/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{6EC9B4E0-0172-4E96-869A-BB41440C52D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{592D3A7B-7664-4900-9A1F-50BBBCF02048}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{6EC9B4E0-0172-4E96-869A-BB41440C52D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34BEC879-6BC2-443B-9994-74C06A33656E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="883" xr2:uid="{08849F30-C0C8-4FA6-923B-FD5527914AF3}"/>
   </bookViews>
@@ -1083,8 +1083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE56FB26-443D-4FAC-8DF9-2C36B0F82D21}">
   <dimension ref="B2:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B49" zoomScale="96" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="96" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1292,9 +1292,7 @@
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="14"/>
-      <c r="G24" s="9">
-        <v>50</v>
-      </c>
+      <c r="G24" s="9"/>
     </row>
     <row r="25" spans="2:7" ht="15.75" thickTop="1">
       <c r="B25" s="2"/>
